--- a/ValueSet-nigeria-session-type.xlsx
+++ b/ValueSet-nigeria-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-nigeria-session-type.xlsx
+++ b/ValueSet-nigeria-session-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -42,46 +42,49 @@
     <t>Title</t>
   </si>
   <si>
+    <t>NG-Imm Session Type VS</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-06-24T09:13:37+01:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>https://nphcda.gov.ng</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>https://nphcda.gov.ng (https://nphcda.gov.ng)</t>
+  </si>
+  <si>
+    <t>Nigeria Primary Healthcare Development Agency. (ig@nphcda.gov.ng(Work))</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Session type</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2025-06-23T13:45:54+01:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>https://nphcda.gov.ng</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>https://nphcda.gov.ng (https://nphcda.gov.ng)</t>
-  </si>
-  <si>
-    <t>Nigeria Primary Healthcare Development Agency. (ig@nphcda.gov.ng(Work))</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -351,27 +354,27 @@
         <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -393,28 +396,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-nigeria-session-type.xlsx
+++ b/ValueSet-nigeria-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Session type</t>
+    <t>Type of session for immunization. Could be in a fixed facility, outreach or mobile.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-nigeria-session-type.xlsx
+++ b/ValueSet-nigeria-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-30T08:07:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-nigeria-session-type.xlsx
+++ b/ValueSet-nigeria-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T08:07:26+01:00</t>
+    <t>2025-07-03T11:54:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/CodeSystem/ng-session-type</t>
+    <t>https://nphcda.gov.ng/immunizationIG/CodeSystem/nigeria-immunization-session-type</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-nigeria-session-type.xlsx
+++ b/ValueSet-nigeria-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T11:54:34+01:00</t>
+    <t>2025-07-03T13:36:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-nigeria-session-type.xlsx
+++ b/ValueSet-nigeria-session-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-session-type</t>
+    <t>https://nphcda.gov.ng/immunizationIG/ValueSet/nigeria-session-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T13:36:09+01:00</t>
+    <t>2025-07-04T07:50:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-nigeria-session-type.xlsx
+++ b/ValueSet-nigeria-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T07:50:29+01:00</t>
+    <t>2025-07-04T16:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-nigeria-session-type.xlsx
+++ b/ValueSet-nigeria-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T16:58:52+01:00</t>
+    <t>2025-07-04T18:56:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-nigeria-session-type.xlsx
+++ b/ValueSet-nigeria-session-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T18:56:28+01:00</t>
+    <t>2025-07-04T19:33:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-nigeria-session-type.xlsx
+++ b/ValueSet-nigeria-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T19:33:02+01:00</t>
+    <t>2025-07-17T18:57:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-nigeria-session-type.xlsx
+++ b/ValueSet-nigeria-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T18:57:38+01:00</t>
+    <t>2025-08-03T02:35:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-nigeria-session-type.xlsx
+++ b/ValueSet-nigeria-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-03T02:35:31+01:00</t>
+    <t>2025-08-03T02:50:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
